--- a/Sample excel files/stata_conference_harmonia_04.xlsx
+++ b/Sample excel files/stata_conference_harmonia_04.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6948" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6948"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="7" r:id="rId1"/>
@@ -254,6 +254,114 @@
     <t xml:space="preserve">This can be done through the findit command in Stata. </t>
   </si>
   <si>
+    <t>This program has been made by BiostatGlobal Consulting and you may contact us with any questions. Contact information is listed below.</t>
+  </si>
+  <si>
+    <t>Dale Rhoda</t>
+  </si>
+  <si>
+    <t>Statistician &amp; President</t>
+  </si>
+  <si>
+    <t>Dale.Rhoda@biostatglobal.com</t>
+  </si>
+  <si>
+    <t>Mary Kay Trimner</t>
+  </si>
+  <si>
+    <t>Project Manager</t>
+  </si>
+  <si>
+    <t>MaryKay.Trimner@biostatglobal.com</t>
+  </si>
+  <si>
+    <t>ESS</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>orange</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>gs7</t>
+  </si>
+  <si>
+    <t>gs15</t>
+  </si>
+  <si>
+    <t>Charleroi: N=300</t>
+  </si>
+  <si>
+    <t>Tarramba: N=277</t>
+  </si>
+  <si>
+    <t>Bellata: N=315</t>
+  </si>
+  <si>
+    <t>Manton: N=323</t>
+  </si>
+  <si>
+    <t>Colebee: N=346</t>
+  </si>
+  <si>
+    <t>Harmonia: N=3,160</t>
+  </si>
+  <si>
+    <t>Pinnacles: N=284</t>
+  </si>
+  <si>
+    <t>Sutherlands: N=323</t>
+  </si>
+  <si>
+    <t>Dongolocking: N=308</t>
+  </si>
+  <si>
+    <t>Rosebud: N=346</t>
+  </si>
+  <si>
+    <t>Pegarah: N=338</t>
+  </si>
+  <si>
+    <t>Estimated Coverage %</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>foreground</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>Red vertical line at 95%; Text at right: 1-sided 95% LCB | Point Estimate | 1-sided 95% UCB, size(vsmall) span</t>
+  </si>
+  <si>
+    <t>Wilson</t>
+  </si>
+  <si>
+    <t>gs8</t>
+  </si>
+  <si>
+    <t>0 135</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>shortdash</t>
+  </si>
+  <si>
+    <t>harmonia_04, replace</t>
+  </si>
+  <si>
+    <t>harmonia_04.png, width(10000) replace</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Once the program has been downloaded you can use Stata help command to look up </t>
     </r>
@@ -267,7 +375,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>iwplot_vcqi</t>
+      <t>iwplot_svyp</t>
     </r>
     <r>
       <rPr>
@@ -301,114 +409,6 @@
       </rPr>
       <t>graph options for additional assistance.</t>
     </r>
-  </si>
-  <si>
-    <t>This program has been made by BiostatGlobal Consulting and you may contact us with any questions. Contact information is listed below.</t>
-  </si>
-  <si>
-    <t>Dale Rhoda</t>
-  </si>
-  <si>
-    <t>Statistician &amp; President</t>
-  </si>
-  <si>
-    <t>Dale.Rhoda@biostatglobal.com</t>
-  </si>
-  <si>
-    <t>Mary Kay Trimner</t>
-  </si>
-  <si>
-    <t>Project Manager</t>
-  </si>
-  <si>
-    <t>MaryKay.Trimner@biostatglobal.com</t>
-  </si>
-  <si>
-    <t>ESS</t>
-  </si>
-  <si>
-    <t>red</t>
-  </si>
-  <si>
-    <t>orange</t>
-  </si>
-  <si>
-    <t>green</t>
-  </si>
-  <si>
-    <t>gs7</t>
-  </si>
-  <si>
-    <t>gs15</t>
-  </si>
-  <si>
-    <t>Charleroi: N=300</t>
-  </si>
-  <si>
-    <t>Tarramba: N=277</t>
-  </si>
-  <si>
-    <t>Bellata: N=315</t>
-  </si>
-  <si>
-    <t>Manton: N=323</t>
-  </si>
-  <si>
-    <t>Colebee: N=346</t>
-  </si>
-  <si>
-    <t>Harmonia: N=3,160</t>
-  </si>
-  <si>
-    <t>Pinnacles: N=284</t>
-  </si>
-  <si>
-    <t>Sutherlands: N=323</t>
-  </si>
-  <si>
-    <t>Dongolocking: N=308</t>
-  </si>
-  <si>
-    <t>Rosebud: N=346</t>
-  </si>
-  <si>
-    <t>Pegarah: N=338</t>
-  </si>
-  <si>
-    <t>Estimated Coverage %</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>foreground</t>
-  </si>
-  <si>
-    <t>black</t>
-  </si>
-  <si>
-    <t>Red vertical line at 95%; Text at right: 1-sided 95% LCB | Point Estimate | 1-sided 95% UCB, size(vsmall) span</t>
-  </si>
-  <si>
-    <t>Wilson</t>
-  </si>
-  <si>
-    <t>gs8</t>
-  </si>
-  <si>
-    <t>0 135</t>
-  </si>
-  <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>shortdash</t>
-  </si>
-  <si>
-    <t>harmonia_04, replace</t>
-  </si>
-  <si>
-    <t>harmonia_04.png, width(10000) replace</t>
   </si>
 </sst>
 </file>
@@ -1028,8 +1028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1136,7 +1136,7 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="20" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -1170,7 +1170,7 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
@@ -1204,16 +1204,16 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -1226,16 +1226,16 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -1406,7 +1406,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
@@ -1511,13 +1511,13 @@
     </row>
     <row r="2" spans="1:25">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E2" s="13">
         <v>75</v>
@@ -1526,13 +1526,13 @@
         <v>82</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L2" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O2" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P2">
         <v>75</v>
@@ -1547,21 +1547,21 @@
         <v>95</v>
       </c>
       <c r="V2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E3" s="13">
         <v>69</v>
@@ -1570,13 +1570,13 @@
         <v>85</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L3" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O3" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P3">
         <v>75</v>
@@ -1591,21 +1591,21 @@
         <v>95</v>
       </c>
       <c r="V3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E4" s="13">
         <v>79</v>
@@ -1614,13 +1614,13 @@
         <v>86</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L4" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O4" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P4">
         <v>75</v>
@@ -1635,21 +1635,21 @@
         <v>95</v>
       </c>
       <c r="V4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E5" s="13">
         <v>81</v>
@@ -1658,13 +1658,13 @@
         <v>88</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L5" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O5" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P5">
         <v>75</v>
@@ -1679,21 +1679,21 @@
         <v>95</v>
       </c>
       <c r="V5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C6">
         <v>8</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E6" s="13">
         <v>81</v>
@@ -1702,13 +1702,13 @@
         <v>96</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L6" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O6" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P6">
         <v>75</v>
@@ -1723,21 +1723,21 @@
         <v>95</v>
       </c>
       <c r="V6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C7">
         <v>9</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E7" s="13">
         <v>77</v>
@@ -1746,13 +1746,13 @@
         <v>98</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L7" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O7" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P7">
         <v>75</v>
@@ -1767,21 +1767,21 @@
         <v>95</v>
       </c>
       <c r="V7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C8">
         <v>10</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E8" s="13">
         <v>87</v>
@@ -1790,13 +1790,13 @@
         <v>98</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L8" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O8" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P8">
         <v>75</v>
@@ -1811,21 +1811,21 @@
         <v>95</v>
       </c>
       <c r="V8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C9">
         <v>11</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E9" s="13">
         <v>85</v>
@@ -1834,13 +1834,13 @@
         <v>100</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L9" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O9" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P9">
         <v>75</v>
@@ -1855,15 +1855,15 @@
         <v>95</v>
       </c>
       <c r="V9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -1876,16 +1876,16 @@
         <v>90</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L10" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O10" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P10">
         <v>75</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C11">
         <v>6</v>
@@ -1908,16 +1908,16 @@
         <v>91.9</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L11" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O11" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P11">
         <v>75</v>
@@ -1927,7 +1927,7 @@
     </row>
     <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C12">
         <v>7</v>
@@ -1940,16 +1940,16 @@
         <v>94</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L12" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O12" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P12">
         <v>75</v>
@@ -1959,13 +1959,13 @@
     </row>
     <row r="13" spans="1:25">
       <c r="A13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C13">
         <v>5</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E13" s="13">
         <v>87</v>
@@ -1974,13 +1974,13 @@
         <v>90</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L13" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O13" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P13">
         <v>75</v>
@@ -1995,21 +1995,21 @@
         <v>95</v>
       </c>
       <c r="V13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C14">
         <v>6</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E14" s="13">
         <v>790</v>
@@ -2018,13 +2018,13 @@
         <v>91.9</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L14" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O14" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P14">
         <v>75</v>
@@ -2039,24 +2039,24 @@
         <v>95</v>
       </c>
       <c r="V14" t="s">
+        <v>76</v>
+      </c>
+      <c r="W14" t="s">
+        <v>76</v>
+      </c>
+      <c r="X14" t="s">
         <v>77</v>
-      </c>
-      <c r="W14" t="s">
-        <v>77</v>
-      </c>
-      <c r="X14" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C15">
         <v>7</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E15" s="13">
         <v>71</v>
@@ -2065,13 +2065,13 @@
         <v>94</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L15" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O15" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P15">
         <v>75</v>
@@ -2086,10 +2086,10 @@
         <v>95</v>
       </c>
       <c r="V15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2175,13 +2175,13 @@
         <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H2">
         <v>14</v>
@@ -2196,16 +2196,16 @@
         <v>2</v>
       </c>
       <c r="M2" t="s">
+        <v>99</v>
+      </c>
+      <c r="N2" t="s">
+        <v>99</v>
+      </c>
+      <c r="O2" t="s">
         <v>100</v>
       </c>
-      <c r="N2" t="s">
-        <v>100</v>
-      </c>
-      <c r="O2" t="s">
-        <v>101</v>
-      </c>
       <c r="P2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2340,7 +2340,7 @@
         <v>103</v>
       </c>
       <c r="D2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2354,7 +2354,7 @@
         <v>103</v>
       </c>
       <c r="D3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2406,10 +2406,10 @@
         <v>11.5</v>
       </c>
       <c r="D2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
